--- a/biology/Zoologie/Conophis_vittatus/Conophis_vittatus.xlsx
+++ b/biology/Zoologie/Conophis_vittatus/Conophis_vittatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conophis vittatus est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conophis vittatus est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[2]. Elle se rencontre jusqu'à 1 000 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre jusqu'à 1 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1860 : Drei neue Schlangen des k. zoologischen Museums aus America und Bemerkungen über die generelle Unterscheidung von anderen bereits bekannten Arten. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1860, p. 517-521 (texte intégral).
 Cope, 1876 "1875" : On the Batrachia and Reptilia of Costa Rica : With notes on the herpetology and ichthyology of Nicaragua and Peru. Journal of the Academy of Natural Sciences of Philadelphia, sér. 2, vol. 8, p. 93–154 (texte intégral).</t>
